--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Vtn</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H2">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J2">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N2">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P2">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q2">
-        <v>0.29937999575</v>
+        <v>2.054287521446222</v>
       </c>
       <c r="R2">
-        <v>2.69441996175</v>
+        <v>18.488587693016</v>
       </c>
       <c r="S2">
-        <v>0.001422289354762151</v>
+        <v>0.01147275754471655</v>
       </c>
       <c r="T2">
-        <v>0.001422289354762151</v>
+        <v>0.01147275754471656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H3">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J3">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>20.79327</v>
       </c>
       <c r="O3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P3">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q3">
-        <v>27.3720526953</v>
+        <v>62.94082166605334</v>
       </c>
       <c r="R3">
-        <v>246.3484742577</v>
+        <v>566.4673949944801</v>
       </c>
       <c r="S3">
-        <v>0.1300386790005285</v>
+        <v>0.3515110611836407</v>
       </c>
       <c r="T3">
-        <v>0.1300386790005285</v>
+        <v>0.3515110611836408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.94917</v>
+        <v>9.080941333333334</v>
       </c>
       <c r="H4">
-        <v>11.84751</v>
+        <v>27.242824</v>
       </c>
       <c r="I4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="J4">
-        <v>0.1372790996046713</v>
+        <v>0.3647727776818407</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N4">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P4">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q4">
-        <v>1.22466789397</v>
+        <v>0.3203271785528889</v>
       </c>
       <c r="R4">
-        <v>11.02201104573</v>
+        <v>2.882944606976</v>
       </c>
       <c r="S4">
-        <v>0.005818131249380626</v>
+        <v>0.001788958953483391</v>
       </c>
       <c r="T4">
-        <v>0.005818131249380626</v>
+        <v>0.001788958953483392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,40 +732,40 @@
         <v>8.875596</v>
       </c>
       <c r="I5">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J5">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N5">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P5">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q5">
-        <v>0.2242813800333333</v>
+        <v>0.6692781228626665</v>
       </c>
       <c r="R5">
-        <v>2.0185324203</v>
+        <v>6.023503105763999</v>
       </c>
       <c r="S5">
-        <v>0.001065512137822169</v>
+        <v>0.003737775532112826</v>
       </c>
       <c r="T5">
-        <v>0.001065512137822169</v>
+        <v>0.003737775532112827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +794,10 @@
         <v>8.875596</v>
       </c>
       <c r="I6">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J6">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +812,10 @@
         <v>20.79327</v>
       </c>
       <c r="O6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P6">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q6">
         <v>20.50585155988</v>
@@ -821,10 +824,10 @@
         <v>184.55266403892</v>
       </c>
       <c r="S6">
-        <v>0.09741884827971234</v>
+        <v>0.1145208062349658</v>
       </c>
       <c r="T6">
-        <v>0.09741884827971234</v>
+        <v>0.1145208062349659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -853,40 +856,40 @@
         <v>8.875596</v>
       </c>
       <c r="I7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="J7">
-        <v>0.1028430300826775</v>
+        <v>0.1188414169728452</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N7">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P7">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q7">
-        <v>0.9174634552786667</v>
+        <v>0.1043612301226667</v>
       </c>
       <c r="R7">
-        <v>8.257171097507999</v>
+        <v>0.939251071104</v>
       </c>
       <c r="S7">
-        <v>0.004358669665142944</v>
+        <v>0.0005828352057665304</v>
       </c>
       <c r="T7">
-        <v>0.004358669665142944</v>
+        <v>0.0005828352057665306</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,46 +912,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H8">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I8">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J8">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N8">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P8">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q8">
-        <v>0.004621528694444444</v>
+        <v>0.02289192213555555</v>
       </c>
       <c r="R8">
-        <v>0.04159375824999999</v>
+        <v>0.20602729922</v>
       </c>
       <c r="S8">
-        <v>2.195587934447405E-05</v>
+        <v>0.0001278465013548174</v>
       </c>
       <c r="T8">
-        <v>2.195587934447406E-05</v>
+        <v>0.0001278465013548174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H9">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I9">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J9">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +998,22 @@
         <v>20.79327</v>
       </c>
       <c r="O9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P9">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q9">
-        <v>0.4225423500333333</v>
+        <v>0.7013801007333335</v>
       </c>
       <c r="R9">
-        <v>3.8028811503</v>
+        <v>6.3124209066</v>
       </c>
       <c r="S9">
-        <v>0.002007406957445629</v>
+        <v>0.00391705822987109</v>
       </c>
       <c r="T9">
-        <v>0.002007406957445629</v>
+        <v>0.003917058229871091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1033,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06096333333333333</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H10">
-        <v>0.18289</v>
+        <v>0.30358</v>
       </c>
       <c r="I10">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="J10">
-        <v>0.002119177323057616</v>
+        <v>0.004064839968450158</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3101076666666667</v>
+        <v>0.03527466666666667</v>
       </c>
       <c r="N10">
-        <v>0.930323</v>
+        <v>0.105824</v>
       </c>
       <c r="O10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994002</v>
       </c>
       <c r="P10">
-        <v>0.04238177017576132</v>
+        <v>0.004904310471994003</v>
       </c>
       <c r="Q10">
-        <v>0.01890519705222222</v>
+        <v>0.003569561102222223</v>
       </c>
       <c r="R10">
-        <v>0.17014677347</v>
+        <v>0.03212604992</v>
       </c>
       <c r="S10">
-        <v>8.981448626751297E-05</v>
+        <v>1.993523722424988E-05</v>
       </c>
       <c r="T10">
-        <v>8.981448626751297E-05</v>
+        <v>1.993523722424989E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1095,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H11">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I11">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J11">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07580833333333332</v>
+        <v>0.2262196666666666</v>
       </c>
       <c r="N11">
-        <v>0.227425</v>
+        <v>0.6786589999999999</v>
       </c>
       <c r="O11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="P11">
-        <v>0.01036056733223033</v>
+        <v>0.03145179203784564</v>
       </c>
       <c r="Q11">
-        <v>1.652529736427778</v>
+        <v>2.841101163794333</v>
       </c>
       <c r="R11">
-        <v>14.87276762785</v>
+        <v>25.569910474149</v>
       </c>
       <c r="S11">
-        <v>0.007850809960301535</v>
+        <v>0.01586694387807861</v>
       </c>
       <c r="T11">
-        <v>0.007850809960301536</v>
+        <v>0.01586694387807861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1145,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H12">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I12">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J12">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1184,22 @@
         <v>20.79327</v>
       </c>
       <c r="O12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901603</v>
       </c>
       <c r="P12">
-        <v>0.9472576624920083</v>
+        <v>0.9636438974901604</v>
       </c>
       <c r="Q12">
-        <v>151.0893568981933</v>
+        <v>87.04781576033001</v>
       </c>
       <c r="R12">
-        <v>1359.80421208374</v>
+        <v>783.4303418429701</v>
       </c>
       <c r="S12">
-        <v>0.7177927282543218</v>
+        <v>0.4861434802039548</v>
       </c>
       <c r="T12">
-        <v>0.7177927282543218</v>
+        <v>0.4861434802039549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,10 +1207,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1219,46 +1222,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.79878733333333</v>
+        <v>12.559037</v>
       </c>
       <c r="H13">
-        <v>65.396362</v>
+        <v>37.677111</v>
       </c>
       <c r="I13">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="J13">
-        <v>0.7577586929895936</v>
+        <v>0.5044845730566345</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03527466666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.105824</v>
+      </c>
+      <c r="O13">
+        <v>0.004904310471994002</v>
+      </c>
+      <c r="P13">
+        <v>0.004904310471994003</v>
+      </c>
+      <c r="Q13">
+        <v>0.4430158438293335</v>
+      </c>
+      <c r="R13">
+        <v>3.987142594464</v>
+      </c>
+      <c r="S13">
+        <v>0.002474148974601076</v>
+      </c>
+      <c r="T13">
+        <v>0.002474148974601076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.585256</v>
+      </c>
+      <c r="I14">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J14">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2262196666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.6786589999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.03145179203784564</v>
+      </c>
+      <c r="P14">
+        <v>0.03145179203784564</v>
+      </c>
+      <c r="Q14">
+        <v>0.04413213907822221</v>
+      </c>
+      <c r="R14">
+        <v>0.3971892517039999</v>
+      </c>
+      <c r="S14">
+        <v>0.0002464685815828283</v>
+      </c>
+      <c r="T14">
+        <v>0.0002464685815828283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.585256</v>
+      </c>
+      <c r="I15">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J15">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3101076666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.930323</v>
-      </c>
-      <c r="O13">
-        <v>0.04238177017576132</v>
-      </c>
-      <c r="P13">
-        <v>0.04238177017576132</v>
-      </c>
-      <c r="Q13">
-        <v>6.759971076102889</v>
-      </c>
-      <c r="R13">
-        <v>60.83973968492599</v>
-      </c>
-      <c r="S13">
-        <v>0.03211515477497024</v>
-      </c>
-      <c r="T13">
-        <v>0.03211515477497024</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.93109</v>
+      </c>
+      <c r="N15">
+        <v>20.79327</v>
+      </c>
+      <c r="O15">
+        <v>0.9636438974901603</v>
+      </c>
+      <c r="P15">
+        <v>0.9636438974901604</v>
+      </c>
+      <c r="Q15">
+        <v>1.352154003013333</v>
+      </c>
+      <c r="R15">
+        <v>12.16938602712</v>
+      </c>
+      <c r="S15">
+        <v>0.007551491637727896</v>
+      </c>
+      <c r="T15">
+        <v>0.007551491637727899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1950853333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.585256</v>
+      </c>
+      <c r="I16">
+        <v>0.007836392320229479</v>
+      </c>
+      <c r="J16">
+        <v>0.007836392320229481</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03527466666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.105824</v>
+      </c>
+      <c r="O16">
+        <v>0.004904310471994002</v>
+      </c>
+      <c r="P16">
+        <v>0.004904310471994003</v>
+      </c>
+      <c r="Q16">
+        <v>0.006881570104888889</v>
+      </c>
+      <c r="R16">
+        <v>0.061934130944</v>
+      </c>
+      <c r="S16">
+        <v>3.843210091875481E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.843210091875483E-05</v>
       </c>
     </row>
   </sheetData>
